--- a/MyFrameWork/ConfigExcels/TestDicExcel.xlsx
+++ b/MyFrameWork/ConfigExcels/TestDicExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11670"/>
+    <workbookView windowWidth="16425" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>参数描述（可替换）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>testDic</t>
-  </si>
-  <si>
-    <t>NNN</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>DDDD</t>
+    <t>List[0]</t>
+  </si>
+  <si>
+    <t>List[1]</t>
+  </si>
+  <si>
+    <t>List[2]</t>
+  </si>
+  <si>
+    <t>List[3]</t>
+  </si>
+  <si>
+    <t>List[4]</t>
+  </si>
+  <si>
+    <t>List[5]</t>
+  </si>
+  <si>
+    <t>List[6]</t>
+  </si>
+  <si>
+    <t>List[7]</t>
+  </si>
+  <si>
+    <t>List[8]</t>
+  </si>
+  <si>
+    <t>List[9]</t>
+  </si>
+  <si>
+    <t>猪妖</t>
+  </si>
+  <si>
+    <t>啊啊</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>的是</t>
+  </si>
+  <si>
+    <t>都是</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>都是阿打算</t>
+  </si>
+  <si>
+    <t>打按时</t>
   </si>
 </sst>
 </file>
@@ -53,7 +95,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -61,6 +103,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -74,82 +121,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -173,7 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +204,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,22 +257,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,37 +267,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,145 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +458,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,17 +487,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,28 +523,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,165 +558,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -980,73 +1028,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
